--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,178 +472,74 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5549496947609652</v>
+        <v>0.5281359931904145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1668985475249864</v>
+        <v>0.1753090570294774</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.53e-13</t>
+          <t>1.19e-13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>GatesS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6030318940640101</v>
+        <v>0.5495801003085575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1413919149250526</v>
+        <v>0.1130043214677473</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.08e-13</t>
+          <t>5.23e-13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>GatesT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5192545043660699</v>
+        <v>0.6952559639331801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1225201874866459</v>
+        <v>0.1129396331774766</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>coldread_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.32e-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Waterclocks</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5529944435481906</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1578440499019864</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.06e-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lizards</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6384522973534064</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1109780882323853</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>coldread_gaze_wpm_median</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.61e-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tastes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6200437480119523</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1287855876541359</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.13e-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lodgepoles</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5960143863047317</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1528307078133282</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.90e-15</t>
+          <t>1.65e-08</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5495801003085575</v>
+        <v>0.4657814258739751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1130043214677473</v>
+        <v>0.1341093468370086</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23e-13</t>
+          <t>1.47e-26</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6952559639331801</v>
+        <v>0.5804708609886242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1129396331774766</v>
+        <v>0.1313706372987473</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>coldread_coverage_line_%</t>
+          <t>qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65e-08</t>
+          <t>2.82e-09</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5281359931904145</v>
+        <v>0.4878181337611489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1753090570294774</v>
+        <v>0.1515156449311006</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.19e-13</t>
+          <t>4.02e-10</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4657814258739751</v>
+        <v>0.4177758339731718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1341093468370086</v>
+        <v>0.1334384849465055</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.47e-26</t>
+          <t>1.38e-07</t>
         </is>
       </c>
     </row>
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5804708609886242</v>
+        <v>0.5003541793228794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1313706372987473</v>
+        <v>0.1340760916137876</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.82e-09</t>
+          <t>7.93e-06</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4878181337611489</v>
+        <v>0.7536891456382829</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1515156449311006</v>
+        <v>0.1689636070299383</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>norm_qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02e-10</t>
+          <t>2.08e-09</t>
         </is>
       </c>
     </row>
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4177758339731718</v>
+        <v>0.4281139994473667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1334384849465055</v>
+        <v>0.13074018657193</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>norm_qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.38e-07</t>
+          <t>7.64e-08</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5003541793228794</v>
+        <v>0.5419255782647949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1340760916137876</v>
+        <v>0.1435993001297624</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>norm_coldread_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.93e-06</t>
+          <t>2.87e-05</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7536891456382829</v>
+        <v>0.5778618378969409</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1689636070299383</v>
+        <v>0.1576473297629773</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_qa_fix_dispersion_mean</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.08e-09</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4281139994473667</v>
+        <v>0.6087350244037076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13074018657193</v>
+        <v>0.1210832617488018</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_qa_fix_dispersion_mean</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.64e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5419255782647949</v>
+        <v>0.5615040311219779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1435993001297624</v>
+        <v>0.09119998029116146</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_coldread_coverage_line_%</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.87e-05</t>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5778618378969409</v>
+        <v>0.5793790578481632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1576473297629773</v>
+        <v>0.1282376807458719</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4.85e-07</t>
         </is>
       </c>
     </row>
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6087350244037076</v>
+        <v>0.4910318146627654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1210832617488018</v>
+        <v>0.120513259971078</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
+          <t>norm_qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8.26e-09</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5615040311219779</v>
+        <v>0.693860083196869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09119998029116146</v>
+        <v>0.1159464948234479</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8.86e-08</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_spectral.xlsx
+++ b/data/output/cluster_metrics_spectral.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5793790578481632</v>
+        <v>0.5190521332866767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1282376807458719</v>
+        <v>0.12323284462364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_qa_coverage_line_%</t>
+          <t>norm_qa_dwell_time_pdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.85e-07</t>
+          <t>8.14e-10</t>
         </is>
       </c>
     </row>
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4910318146627654</v>
+        <v>0.5004341392661609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.120513259971078</v>
+        <v>0.1172237954254701</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_qa_fix_dispersion_mean</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.26e-09</t>
+          <t>1.27e-05</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.693860083196869</v>
+        <v>0.5351998647080868</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1159464948234479</v>
+        <v>0.1591852529964055</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_qa_coverage_line_%</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.86e-08</t>
+          <t>9.24e-07</t>
         </is>
       </c>
     </row>
